--- a/Results/gemma/final_tasks_generated_brainmed.xlsx
+++ b/Results/gemma/final_tasks_generated_brainmed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unibari-my.sharepoint.com/personal/antonio_curci_uniba_it/Documents/PhD/Projects/Symbiotic AI/HCD and LLMs Research/LLMs for Usability Tests/Antonio - Tasks July 2025/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antoniocurci/Developer/GitHub/code-paper/results/gemma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{F16E7603-3989-724A-82A2-F122C0C5A422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8575FE4-FD45-6942-962D-540ABA767795}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A821F8-81A0-BA47-9281-372CD05631F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="760" windowWidth="29980" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="260" yWindow="760" windowWidth="29980" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -9876,8 +9876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E3595"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
